--- a/data/trans_dic/P12A1_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación  &gt;=60 años</t>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,49%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 57,2</t>
+          <t>0,69; 6,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 43,68</t>
+          <t>0,89; 7,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 39,25</t>
+          <t>0,48; 7,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 39,99</t>
+          <t>1,09; 10,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,77</t>
+          <t>0,88; 6,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,23</t>
+          <t>1,84; 11,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,54</t>
+          <t>0,0; 3,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,08; 61,96</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 32,97</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 36,29</t>
+          <t>0,67; 6,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 33,72</t>
+          <t>2,49; 13,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 43,18</t>
+          <t>3,02; 14,51</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 3,85</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 3,9</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 4,0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 6,7</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 8,15</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 9,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,79%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 56,85</t>
+          <t>1,05; 5,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 47,53</t>
+          <t>0,99; 6,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 40,49</t>
+          <t>1,0; 6,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,03; 70,59</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 67,94</t>
+          <t>0,79; 7,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,48; 61,11</t>
+          <t>1,84; 10,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 68,95</t>
+          <t>0,97; 5,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,02; 54,75</t>
+          <t>0,43; 3,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,5; 55,89</t>
+          <t>1,7; 6,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 41,93</t>
+          <t>1,4; 6,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,46; 42,58</t>
+          <t>1,69; 8,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,8; 56,39</t>
+          <t>1,1; 6,85</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 4,83</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 3,89</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 5,49</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 4,47</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 6,27</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 7,38</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 34,12</t>
+          <t>0,36; 3,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 32,35</t>
+          <t>0,61; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,36</t>
+          <t>0,29; 3,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,49</t>
+          <t>0,78; 4,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 45,74</t>
+          <t>0,42; 3,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,7; 31,55</t>
+          <t>1,46; 7,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 30,8</t>
+          <t>1,43; 5,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 37,51</t>
+          <t>0,77; 3,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 33,96</t>
+          <t>0,77; 3,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 27,09</t>
+          <t>0,3; 3,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 23,72</t>
+          <t>1,42; 5,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 24,63</t>
+          <t>0,85; 5,2</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 3,66</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 3,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,56</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 3,24</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 3,68</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1,54; 4,99</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 51,21</t>
+          <t>2,48; 7,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,84; 61,51</t>
+          <t>2,8; 7,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 39,88</t>
+          <t>1,99; 6,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 22,82</t>
+          <t>1,33; 5,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,7; 55,55</t>
+          <t>1,37; 6,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,77; 50,8</t>
+          <t>2,4; 8,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,45; 53,04</t>
+          <t>4,4; 10,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 29,48</t>
+          <t>3,53; 8,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 49,7</t>
+          <t>4,62; 9,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,88; 51,11</t>
+          <t>3,32; 8,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,83; 43,71</t>
+          <t>1,28; 5,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,51; 21,08</t>
+          <t>1,74; 6,42</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 8,04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 7,36</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 7,25</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 6,2</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 5,38</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 6,21</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>55,55%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,41%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>71,6%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>62,82%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>59,92%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>60,8%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63,28%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>51,05%</t>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>16,28%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,62; 58,45</t>
+          <t>3,82; 11,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,22; 60,3</t>
+          <t>6,18; 13,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>38,49; 69,55</t>
+          <t>9,03; 17,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>29,1; 54,18</t>
+          <t>9,55; 19,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,55; 88,01</t>
+          <t>9,99; 21,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,88; 84,84</t>
+          <t>12,49; 23,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>56,47; 82,95</t>
+          <t>9,47; 19,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,7; 73,49</t>
+          <t>10,52; 19,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>47,57; 71,02</t>
+          <t>10,2; 19,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>52,1; 70,43</t>
+          <t>10,23; 21,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,66; 72,69</t>
+          <t>12,6; 22,5</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>42,35; 60,36</t>
+          <t>10,74; 20,44</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>7,63; 13,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 15,33</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,62; 16,75</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 19,09</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 20,24</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 20,42</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>86,88%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>23,73%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>21,8%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>22,88%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>21,93%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>23,06%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>26,57%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>64,92; 93,93</t>
+          <t>14,01; 27,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,25; 95,26</t>
+          <t>11,82; 23,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,45; 100,0</t>
+          <t>15,99; 28,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>75,12; 96,57</t>
+          <t>10,02; 23,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,95; 94,37</t>
+          <t>19,42; 34,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,46; 96,05</t>
+          <t>23,09; 39,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,54; 94,48</t>
+          <t>18,22; 31,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>61,29; 90,34</t>
+          <t>18,87; 31,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77,07; 92,43</t>
+          <t>18,05; 31,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,25; 94,24</t>
+          <t>19,21; 34,07</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>84,8; 95,6</t>
+          <t>14,29; 29,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>72,89; 91,06</t>
+          <t>17,01; 30,97</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>18,24; 27,67</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>17,55; 26,52</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>18,79; 28,0</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 27,41</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>18,21; 29,41</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>21,54; 32,04</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,23%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>58,1%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>57,04%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>51,84%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>50,72%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>36,51; 54,49</t>
+          <t>4,8; 8,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,7; 50,28</t>
+          <t>4,92; 7,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,85; 50,83</t>
+          <t>5,47; 8,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,04; 44,88</t>
+          <t>5,17; 8,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>49,8; 64,11</t>
+          <t>6,46; 10,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,88; 65,01</t>
+          <t>8,6; 12,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,52; 62,91</t>
+          <t>7,4; 11,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,81; 55,72</t>
+          <t>7,13; 10,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>46,06; 57,72</t>
+          <t>7,49; 10,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,59; 56,25</t>
+          <t>7,67; 11,87</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>45,16; 55,18</t>
+          <t>7,74; 11,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>37,91; 47,95</t>
+          <t>7,79; 11,78</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>6,63; 8,98</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6,38; 8,59</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 9,09</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 9,6</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 10,37</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>8,72; 11,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14783</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14754</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12657</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20536</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1191</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2691</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5938</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13195</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2237</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2474</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>17474</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>19435</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18595</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>33731</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3428</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3452; 33413</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4618; 37084</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2433; 36419</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5129; 48953</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>371; 2909</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>811; 4964</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16422</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15928</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20382</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3215; 32424</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>932; 5160</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1162; 5595</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6163; 37383</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7509; 40397</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6020; 40932</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>14391; 63587</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1676; 6476</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2496; 8164</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16383</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14872</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17557</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7953</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2503</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13638</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6932</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18903</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15680</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1360</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>30021</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>21804</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>36460</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>23633</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3450</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3863</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5978; 33276</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5589; 34124</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5972; 39004</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 27829</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>396; 3713</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>893; 5134</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4987; 30315</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2190; 20290</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8777; 35294</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7080; 32900</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>797; 3883</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>500; 3114</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>15131; 52438</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10373; 41794</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20784; 60935</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11955; 48464</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1732; 6091</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2067; 6930</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7947</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11130</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7014</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15953</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2169</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21950</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13738</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12712</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8640</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1244</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>29898</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24868</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>19726</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>24594</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2441</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>3413</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2488; 21248</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4128; 23687</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1978; 21043</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5269; 31534</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>254; 2183</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>885; 4290</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10128; 39419</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5555; 26614</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5476; 24649</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2149; 21547</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>764; 3158</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>469; 2852</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15092; 51157</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12508; 42458</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>10006; 35683</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12216; 44884</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1285; 4196</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1777; 5768</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27951</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32373</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>23479</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20041</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2673</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>47778</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37406</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45780</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>36605</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>75729</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>69779</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>69260</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>56645</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>4570</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16073; 48332</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18085; 51456</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12666; 38288</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8698; 37936</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>795; 3757</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1353; 4796</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30189; 70116</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23776; 57470</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30498; 65881</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21934; 56840</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>669; 3038</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>925; 3406</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>54571; 107130</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>51597; 97156</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>48809; 94093</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>36582; 81541</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2083; 5938</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2824; 6799</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>34891</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>46882</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61587</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>67895</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6690</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7972</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>70216</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>74089</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>73715</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>80275</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8492</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6953</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>105107</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>120970</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>135302</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>148170</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>15183</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>14925</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18901; 54559</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>31141; 67638</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>44403; 84439</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>46692; 93393</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4445; 9490</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5600; 10756</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>48227; 98736</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>52907; 97736</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52565; 98867</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>52865; 111712</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6146; 10972</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4985; 9485</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>76672; 137779</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>97253; 154418</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>106942; 168674</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>114297; 192043</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>12107; 18875</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>11690; 18631</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>108316</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>91109</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>115046</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>91907</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12202</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13996</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>174118</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>174846</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>164426</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>190067</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13295</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15107</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>282434</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>265955</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>279471</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>281974</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>25497</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>29103</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>76400; 151113</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>62080; 125268</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>84587; 153034</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>55729; 132838</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9094; 16052</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10587; 18025</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>130781; 226503</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>131112; 216923</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>125030; 215525</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>140240; 248727</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9107; 18921</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10829; 19721</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>230297; 349411</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>214070; 323531</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>229595; 342117</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>220560; 352480</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>20128; 32520</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>23588; 35090</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>210271</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>211119</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>237340</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>224286</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>24442</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>31481</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>330392</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>311691</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>321474</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>344462</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>29085</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>29035</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>540663</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>522811</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>558814</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>568747</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>53527</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>60516</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>165399; 276017</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>169410; 260943</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>188406; 286680</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>177250; 293048</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>19464; 30671</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>25844; 38484</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>266977; 401235</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>257488; 373713</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>270548; 396049</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>276155; 427079</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>23473; 36328</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>23511; 35574</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>467870; 633320</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>450079; 606268</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>491195; 641396</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>485893; 674130</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>46288; 62725</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>52507; 68833</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
